--- a/src/main/java/za/co/ilab/automation/data/iLab.xlsx
+++ b/src/main/java/za/co/ilab/automation/data/iLab.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\ApplicationAutomationTest\ApplicationAutomationTest\src\main\java\za\co\ilab\automation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farouks\IdeaProjects\testing-automation-project\src\main\java\za\co\ilab\automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BA7CFD-3234-4DC1-8A65-9F9B14910BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Application" sheetId="1" r:id="rId1"/>
@@ -38,22 +39,22 @@
     <t>CellNumber</t>
   </si>
   <si>
-    <t>Senior Test Engineer Application</t>
-  </si>
-  <si>
-    <t>Nhlanhla</t>
-  </si>
-  <si>
     <t>AutomationAssessment@iLABQuality.com</t>
   </si>
   <si>
-    <t>0835687859</t>
+    <t>0726563932</t>
+  </si>
+  <si>
+    <t>Test Engineer Application</t>
+  </si>
+  <si>
+    <t>Farouk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -410,11 +411,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,21 +442,21 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
